--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_8.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_8.xlsx
@@ -483,40 +483,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1454545454545454</v>
+        <v>0.106312292358804</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min'], ['A:min', 'D:min', 'A:min']]</t>
+          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min'], ['C:min', 'F:min', 'C:min/5']]</t>
+          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(44.2, 52.32), (13.52, 19.88)]</t>
+          <t>[(12.26, 16.52)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(156.152, 159.022), (84.323, 87.713)]</t>
+          <t>[(23.18, 30.14)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -524,35 +524,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>isophonics_67</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1852631578947369</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['C', 'D', 'G', 'E:min']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['F', 'G', 'C', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14)]</t>
+          <t>[(55.151295, 61.374243)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(37.995918, 46.610521)]</t>
+          <t>[(97.77399, 104.182698)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -561,35 +561,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1116352201257862</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>[['B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj'], ['F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(19.708503, 25.501882)]</t>
+          <t>[(10.2, 14.38), (9.54, 13.76)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[(4.605, 21.095), (3.509, 18.764)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -598,154 +598,150 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2363636363636364</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.36, 2.44)]</t>
+          <t>[(3.26, 20.1)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[(68.66, 79.22)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>isophonics_22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2311827956989247</v>
+        <v>0.1398692810457516</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E', 'E/7', 'E/6', 'E/5']]</t>
+          <t>[['B', 'B/7', 'B/6', 'B/5']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'D/5', 'D', 'D:maj(*1)/#1']]</t>
+          <t>[['E/5', 'E/#4', 'E/4', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(80.022335, 83.702698)]</t>
+          <t>[(0.440395, 3.280385)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(37.077029, 40.734172)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[(0.440395, 7.659045)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2598235765838011</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D:maj', 'A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(117.34, 145.84)]</t>
+          <t>[(64.08, 73.88)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(149.0, 182.72)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[(224.26, 235.06)]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3314393939393939</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
+          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[(6.74, 12.16), (16.84, 19.46)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.32, 10.96)]</t>
+          <t>[(80.48, 93.6), (79.98, 87.7)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -758,146 +754,162 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1366396761133603</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'A/3', 'E/5'], ['G', 'C', 'A:min']]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D'], ['D', 'G', 'E:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.404, 17.043), (88.497, 92.37)]</t>
+          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.968347, 20.332973), (56.381952, 61.374243)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1414473684210526</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min'], ['D', 'G', 'E:min'], ['G', 'C', 'G']]</t>
+          <t>[['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'G:min', 'C:min'], ['F:maj', 'Bb:maj', 'G:min'], ['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(26.115071, 38.793167), (45.201874, 53.746817), (17.581738, 30.271443)]</t>
+          <t>[(22.4, 31.86)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(55.96, 67.802), (67.802, 76.324), (38.041, 42.375)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[(2.0, 4.32)]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2864583333333334</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A/b3', 'A/3', 'D', 'A', 'A/2']]</t>
+          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'E/5', 'B', 'B']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(65.369945, 72.097891)]</t>
+          <t>[(84.96, 91.38), (116.66, 121.42)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(55.629773, 67.541609)]</t>
+          <t>[(89.74, 96.12), (39.04, 46.1)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>isophonics_220</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>[['D', 'D', 'D/7', 'D/6']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>[['Eb', 'Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(122.674, 126.958)]</t>
+          <t>[(0.325509, 3.756394)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.46, 3.22)]</t>
+          <t>[(40.59, 46.47)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -906,150 +918,158 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2767857142857143</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:min']]</t>
+          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.8, 9.28), (30.74, 41.86)]</t>
+          <t>[(7.02, 13.54), (19.14, 22.24)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32), (63.58, 66.36)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[(64.58, 73.88), (64.08, 70.34)]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1535714285714286</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.88, 6.56)]</t>
+          <t>[(19.5, 49.86)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.523, 10.397)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[(36.32, 51.92)]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(76.585782, 78.06481)]</t>
+          <t>[(68.82, 84.54)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(52.74, 60.86)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[(20.56, 26.4)]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>jaah_10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1166969972702457</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['F:7', 'Bb:7', 'Eb:maj6']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>[['F:7', 'Bb:7', 'Eb:maj6']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(17.965212, 29.679679)]</t>
+          <t>[(37.85, 45.93)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.162102, 17.463236)]</t>
+          <t>[(14.24, 17.77)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1058,43 +1078,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2363636363636364</v>
+        <v>0.2373626373626374</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(19.82, 29.1)]</t>
+          <t>[(64.3, 65.72), (62.48, 64.92)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[(68.64, 77.38), (16.82, 23.18)]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_8.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03870192307692308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj'], ['G:min7/A#', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.26, 16.52)]</t>
+          <t>[['G:7', 'C', 'C'], ['D:min7', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(23.18, 30.14)]</t>
+          <t>[('0:00:06.380000', '0:00:12.500000'), ('0:01:11.100000', '0:01:18.700000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:12.030000', '0:00:14.360000'), ('0:00:11.260000', '0:00:13.580000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_67</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1852631578947369</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(55.151295, 61.374243)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(97.77399, 104.182698)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5535714285714286</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj'], ['F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3080357142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.2, 14.38), (9.54, 13.76)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(4.605, 21.095), (3.509, 18.764)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.26, 20.1)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(68.66, 79.22)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:24', '0:01:30.840000'), ('0:00:13.740000', '0:00:22.560000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:08.260000', '0:00:12.960000'), ('0:00:00.360000', '0:00:05.060000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1398692810457516</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B', 'B/7', 'B/6', 'B/5']]</t>
-        </is>
+          <t>jaah_19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_50</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02796257796257796</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E/5', 'E/#4', 'E/4', 'E']]</t>
+          <t>[['Bb:min7', 'Eb:7', 'Ab:maj7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.440395, 3.280385)]</t>
+          <t>[['Eb:min7', 'Ab:7', 'Db:maj7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.659045)]</t>
+          <t>[('0:00:01.330000', '0:00:03.530000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:16.600000', '0:00:20.430000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(64.08, 73.88)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(224.26, 235.06)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.74, 12.16), (16.84, 19.46)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(80.48, 93.6), (79.98, 87.7)]</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(22.4, 31.86)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32)]</t>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.425</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(84.96, 91.38), (116.66, 121.42)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(89.74, 96.12), (39.04, 46.1)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_43</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'D', 'D/7', 'D/6']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.325509, 3.756394)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(40.59, 46.47)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54), (19.14, 22.24)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88), (64.08, 70.34)]</t>
+          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(19.5, 49.86)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.32, 51.92)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(68.82, 84.54)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_10</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1166969972702457</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb:7', 'Eb:maj6']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>[['D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(37.85, 45.93)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(14.24, 17.77)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:01.922018', '0:00:25.350952')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(64.3, 65.72), (62.48, 64.92)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(68.64, 77.38), (16.82, 23.18)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
